--- a/Code/Results/Cases/Case_1_117/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_117/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9980080281218621</v>
+        <v>1.026671460235407</v>
       </c>
       <c r="D2">
-        <v>1.037428763212149</v>
+        <v>1.038915501704312</v>
       </c>
       <c r="E2">
-        <v>1.004711712339226</v>
+        <v>1.026864470649486</v>
       </c>
       <c r="F2">
-        <v>1.007736707012842</v>
+        <v>1.038633994696341</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050066189242882</v>
+        <v>1.038112585822517</v>
       </c>
       <c r="J2">
-        <v>1.020248482402625</v>
+        <v>1.031833601415962</v>
       </c>
       <c r="K2">
-        <v>1.048390166449198</v>
+        <v>1.041702175808341</v>
       </c>
       <c r="L2">
-        <v>1.016105793503618</v>
+        <v>1.029685872565378</v>
       </c>
       <c r="M2">
-        <v>1.019089299308043</v>
+        <v>1.0414214700446</v>
       </c>
       <c r="N2">
-        <v>1.021697352271774</v>
+        <v>1.033298923482952</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002562622483502</v>
+        <v>1.027618517893215</v>
       </c>
       <c r="D3">
-        <v>1.040416355518991</v>
+        <v>1.039517420154822</v>
       </c>
       <c r="E3">
-        <v>1.008346749107899</v>
+        <v>1.027668378249994</v>
       </c>
       <c r="F3">
-        <v>1.013138114955004</v>
+        <v>1.039825051248679</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051638939047205</v>
+        <v>1.038363400505145</v>
       </c>
       <c r="J3">
-        <v>1.022983670773904</v>
+        <v>1.032420530751993</v>
       </c>
       <c r="K3">
-        <v>1.050556954952435</v>
+        <v>1.042114755303684</v>
       </c>
       <c r="L3">
-        <v>1.018873934167803</v>
+        <v>1.030297394411474</v>
       </c>
       <c r="M3">
-        <v>1.023605606330382</v>
+        <v>1.042421574270376</v>
       </c>
       <c r="N3">
-        <v>1.024436424924269</v>
+        <v>1.033886686325951</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005446854448863</v>
+        <v>1.02823153521702</v>
       </c>
       <c r="D4">
-        <v>1.042308711310927</v>
+        <v>1.039906678261499</v>
       </c>
       <c r="E4">
-        <v>1.0106546628811</v>
+        <v>1.028189122706892</v>
       </c>
       <c r="F4">
-        <v>1.016559353950791</v>
+        <v>1.040596144534266</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05262315614911</v>
+        <v>1.038524289408417</v>
       </c>
       <c r="J4">
-        <v>1.024712247976999</v>
+        <v>1.032799923913078</v>
       </c>
       <c r="K4">
-        <v>1.051921976698899</v>
+        <v>1.042380803351435</v>
       </c>
       <c r="L4">
-        <v>1.020626174064575</v>
+        <v>1.030693002132187</v>
       </c>
       <c r="M4">
-        <v>1.02646194728236</v>
+        <v>1.043068541351774</v>
       </c>
       <c r="N4">
-        <v>1.026167456905264</v>
+        <v>1.034266618268842</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006644884095016</v>
+        <v>1.028489296917604</v>
       </c>
       <c r="D5">
-        <v>1.04309476463877</v>
+        <v>1.040070267485894</v>
       </c>
       <c r="E5">
-        <v>1.011614701556995</v>
+        <v>1.028408177361583</v>
       </c>
       <c r="F5">
-        <v>1.01798066717543</v>
+        <v>1.040920408180215</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05302910882768</v>
+        <v>1.038591590237115</v>
       </c>
       <c r="J5">
-        <v>1.025429381714732</v>
+        <v>1.032959327007715</v>
       </c>
       <c r="K5">
-        <v>1.052487197350751</v>
+        <v>1.042492429113739</v>
       </c>
       <c r="L5">
-        <v>1.02135380314272</v>
+        <v>1.030859293912296</v>
       </c>
       <c r="M5">
-        <v>1.027647534757053</v>
+        <v>1.04334048635163</v>
       </c>
       <c r="N5">
-        <v>1.026885609055161</v>
+        <v>1.034426247734156</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006845203780355</v>
+        <v>1.028532579112883</v>
       </c>
       <c r="D6">
-        <v>1.043226197607853</v>
+        <v>1.040097731577098</v>
       </c>
       <c r="E6">
-        <v>1.011775308142373</v>
+        <v>1.028444965412981</v>
       </c>
       <c r="F6">
-        <v>1.018218336099332</v>
+        <v>1.040974859111872</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053096817501596</v>
+        <v>1.03860287057343</v>
       </c>
       <c r="J6">
-        <v>1.025549240019612</v>
+        <v>1.032986085972073</v>
       </c>
       <c r="K6">
-        <v>1.052581600568408</v>
+        <v>1.042511158592662</v>
       </c>
       <c r="L6">
-        <v>1.021475455415766</v>
+        <v>1.030887213741135</v>
       </c>
       <c r="M6">
-        <v>1.02784572411864</v>
+        <v>1.043386144772575</v>
       </c>
       <c r="N6">
-        <v>1.027005637572582</v>
+        <v>1.034453044699314</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005462918846054</v>
+        <v>1.028234979248713</v>
       </c>
       <c r="D7">
-        <v>1.042319251535976</v>
+        <v>1.039908864366155</v>
       </c>
       <c r="E7">
-        <v>1.01066753059626</v>
+        <v>1.028192049201846</v>
       </c>
       <c r="F7">
-        <v>1.01657841141166</v>
+        <v>1.040600476983323</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052628610950965</v>
+        <v>1.038525190009684</v>
       </c>
       <c r="J7">
-        <v>1.024721867505397</v>
+        <v>1.032802054234285</v>
       </c>
       <c r="K7">
-        <v>1.051929562833809</v>
+        <v>1.042382295769275</v>
       </c>
       <c r="L7">
-        <v>1.020635931696966</v>
+        <v>1.030695224217242</v>
       </c>
       <c r="M7">
-        <v>1.026477848206305</v>
+        <v>1.0430721752511</v>
       </c>
       <c r="N7">
-        <v>1.026177090094495</v>
+        <v>1.034268751615349</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9995606416685824</v>
+        <v>1.026991479497743</v>
       </c>
       <c r="D8">
-        <v>1.038447057504957</v>
+        <v>1.039118968271485</v>
       </c>
       <c r="E8">
-        <v>1.00594957221995</v>
+        <v>1.027136037935612</v>
       </c>
       <c r="F8">
-        <v>1.009577859839802</v>
+        <v>1.039036435154124</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050604757344736</v>
+        <v>1.038197640417926</v>
       </c>
       <c r="J8">
-        <v>1.02118159645755</v>
+        <v>1.032032037208373</v>
       </c>
       <c r="K8">
-        <v>1.04913025471806</v>
+        <v>1.041841798585023</v>
       </c>
       <c r="L8">
-        <v>1.017049551394033</v>
+        <v>1.029892557005587</v>
       </c>
       <c r="M8">
-        <v>1.020629637261725</v>
+        <v>1.041759494619606</v>
       </c>
       <c r="N8">
-        <v>1.022631791455686</v>
+        <v>1.033497641076938</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9886518017529825</v>
+        <v>1.024801886664735</v>
       </c>
       <c r="D9">
-        <v>1.031297886739466</v>
+        <v>1.037725421380781</v>
       </c>
       <c r="E9">
-        <v>0.9972796413193106</v>
+        <v>1.025279561894678</v>
       </c>
       <c r="F9">
-        <v>0.9966429543081297</v>
+        <v>1.036283445656545</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046772770923703</v>
+        <v>1.037609718317114</v>
       </c>
       <c r="J9">
-        <v>1.014611758282111</v>
+        <v>1.030672211876908</v>
       </c>
       <c r="K9">
-        <v>1.043902795837682</v>
+        <v>1.040882380866303</v>
       </c>
       <c r="L9">
-        <v>1.010417009176308</v>
+        <v>1.028477512343915</v>
       </c>
       <c r="M9">
-        <v>1.009790733065564</v>
+        <v>1.039445099075232</v>
       </c>
       <c r="N9">
-        <v>1.016052623356468</v>
+        <v>1.032135884637529</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.98099770210562</v>
+        <v>1.023343269695345</v>
       </c>
       <c r="D10">
-        <v>1.026292887901113</v>
+        <v>1.036795363856408</v>
       </c>
       <c r="E10">
-        <v>0.9912335826697725</v>
+        <v>1.02404489273704</v>
       </c>
       <c r="F10">
-        <v>0.987566475754472</v>
+        <v>1.034450151545215</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044025297404979</v>
+        <v>1.037210580188302</v>
       </c>
       <c r="J10">
-        <v>1.009986071879583</v>
+        <v>1.029763706027299</v>
       </c>
       <c r="K10">
-        <v>1.040203107186072</v>
+        <v>1.040238123094334</v>
       </c>
       <c r="L10">
-        <v>1.005762942192558</v>
+        <v>1.02753375644222</v>
       </c>
       <c r="M10">
-        <v>1.002163909687273</v>
+        <v>1.037901296699984</v>
       </c>
       <c r="N10">
-        <v>1.011420367948674</v>
+        <v>1.031226088605406</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9775831656513462</v>
+        <v>1.022711941143666</v>
       </c>
       <c r="D11">
-        <v>1.024064201206511</v>
+        <v>1.036392412399755</v>
       </c>
       <c r="E11">
-        <v>0.9885459895445537</v>
+        <v>1.023510986002651</v>
       </c>
       <c r="F11">
-        <v>0.9835163752978227</v>
+        <v>1.033656791563418</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042786411843483</v>
+        <v>1.037036049506107</v>
       </c>
       <c r="J11">
-        <v>1.007919189256658</v>
+        <v>1.029369855494115</v>
       </c>
       <c r="K11">
-        <v>1.038546136290582</v>
+        <v>1.039958061826366</v>
       </c>
       <c r="L11">
-        <v>1.003687193365256</v>
+        <v>1.027125014400329</v>
       </c>
       <c r="M11">
-        <v>0.9987559905982222</v>
+        <v>1.037232603574449</v>
       </c>
       <c r="N11">
-        <v>1.009350550115349</v>
+        <v>1.030831678759289</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9762988886277998</v>
+        <v>1.022477477324276</v>
       </c>
       <c r="D12">
-        <v>1.023226685954466</v>
+        <v>1.036242705022422</v>
       </c>
       <c r="E12">
-        <v>0.9875366414927632</v>
+        <v>1.023312777292145</v>
       </c>
       <c r="F12">
-        <v>0.9819928157006876</v>
+        <v>1.033362172141674</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042318519492501</v>
+        <v>1.0369709658749</v>
       </c>
       <c r="J12">
-        <v>1.007141331827566</v>
+        <v>1.02922349298759</v>
       </c>
       <c r="K12">
-        <v>1.037922029479318</v>
+        <v>1.039853871209441</v>
       </c>
       <c r="L12">
-        <v>1.002906579557637</v>
+        <v>1.026973176540826</v>
       </c>
       <c r="M12">
-        <v>0.9974733321088997</v>
+        <v>1.036984188287201</v>
       </c>
       <c r="N12">
-        <v>1.008571588039487</v>
+        <v>1.030685108401217</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9765751081832005</v>
+        <v>1.022527768807139</v>
       </c>
       <c r="D13">
-        <v>1.023406781418726</v>
+        <v>1.036274819246729</v>
       </c>
       <c r="E13">
-        <v>0.9877536604948591</v>
+        <v>1.023355288831039</v>
       </c>
       <c r="F13">
-        <v>0.9823205115463091</v>
+        <v>1.03342536585848</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042419238549122</v>
+        <v>1.036984938074629</v>
       </c>
       <c r="J13">
-        <v>1.007308651870332</v>
+        <v>1.029254891351876</v>
       </c>
       <c r="K13">
-        <v>1.038056299524908</v>
+        <v>1.03987622783023</v>
       </c>
       <c r="L13">
-        <v>1.003074466168251</v>
+        <v>1.02700574685</v>
       </c>
       <c r="M13">
-        <v>0.9977492434996872</v>
+        <v>1.037037475703526</v>
       </c>
       <c r="N13">
-        <v>1.008739145695906</v>
+        <v>1.030716551354782</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9774773380869251</v>
+        <v>1.022692559479198</v>
       </c>
       <c r="D14">
-        <v>1.023995172119257</v>
+        <v>1.036380038212045</v>
       </c>
       <c r="E14">
-        <v>0.9884627856822352</v>
+        <v>1.023494599800101</v>
       </c>
       <c r="F14">
-        <v>0.9833908354964557</v>
+        <v>1.033632436809571</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042747895048082</v>
+        <v>1.037030674875669</v>
       </c>
       <c r="J14">
-        <v>1.007855101020978</v>
+        <v>1.029357758526225</v>
       </c>
       <c r="K14">
-        <v>1.03849472581821</v>
+        <v>1.039949452725553</v>
       </c>
       <c r="L14">
-        <v>1.00362286619459</v>
+        <v>1.027112463694597</v>
       </c>
       <c r="M14">
-        <v>0.998650314314897</v>
+        <v>1.037212070162263</v>
       </c>
       <c r="N14">
-        <v>1.009286370867023</v>
+        <v>1.030819564612318</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9780310878409333</v>
+        <v>1.022794097723173</v>
       </c>
       <c r="D15">
-        <v>1.024356402304833</v>
+        <v>1.036444862721635</v>
       </c>
       <c r="E15">
-        <v>0.9888982173989058</v>
+        <v>1.023580448226308</v>
       </c>
       <c r="F15">
-        <v>0.9840477208198269</v>
+        <v>1.033760029288538</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042949358804232</v>
+        <v>1.037058821029232</v>
       </c>
       <c r="J15">
-        <v>1.00819042844785</v>
+        <v>1.029421129273369</v>
       </c>
       <c r="K15">
-        <v>1.038763698984427</v>
+        <v>1.03999454737545</v>
       </c>
       <c r="L15">
-        <v>1.003959467482868</v>
+        <v>1.027178213777177</v>
       </c>
       <c r="M15">
-        <v>0.9992032367879985</v>
+        <v>1.037319639202109</v>
       </c>
       <c r="N15">
-        <v>1.009622174497304</v>
+        <v>1.030883025353192</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9812221257527509</v>
+        <v>1.023385174443968</v>
       </c>
       <c r="D16">
-        <v>1.026439465837262</v>
+        <v>1.036822101678536</v>
       </c>
       <c r="E16">
-        <v>0.9914104327181531</v>
+        <v>1.024080341469123</v>
       </c>
       <c r="F16">
-        <v>0.9878326444496613</v>
+        <v>1.034502814054663</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044106454430039</v>
+        <v>1.037222127408205</v>
       </c>
       <c r="J16">
-        <v>1.010121853617599</v>
+        <v>1.029789834905429</v>
       </c>
       <c r="K16">
-        <v>1.040311885219842</v>
+        <v>1.040256686876733</v>
       </c>
       <c r="L16">
-        <v>1.005899386354332</v>
+        <v>1.027560881469226</v>
       </c>
       <c r="M16">
-        <v>1.002387779850624</v>
+        <v>1.037945671068171</v>
       </c>
       <c r="N16">
-        <v>1.011556342512332</v>
+        <v>1.03125225458954</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9831963208037253</v>
+        <v>1.023756011683717</v>
       </c>
       <c r="D17">
-        <v>1.027729350767124</v>
+        <v>1.037058672978481</v>
       </c>
       <c r="E17">
-        <v>0.9929672338954524</v>
+        <v>1.02439410284737</v>
       </c>
       <c r="F17">
-        <v>0.9901739332737421</v>
+        <v>1.034968868324918</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044818875135807</v>
+        <v>1.037324110017181</v>
       </c>
       <c r="J17">
-        <v>1.011315914610604</v>
+        <v>1.030020990969949</v>
       </c>
       <c r="K17">
-        <v>1.041268046197116</v>
+        <v>1.040420827947432</v>
       </c>
       <c r="L17">
-        <v>1.007099706962643</v>
+        <v>1.027800895249723</v>
       </c>
       <c r="M17">
-        <v>1.004356470829904</v>
+        <v>1.038338306098987</v>
       </c>
       <c r="N17">
-        <v>1.012752099208907</v>
+        <v>1.031483738922186</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9843382262330658</v>
+        <v>1.023972340050722</v>
       </c>
       <c r="D18">
-        <v>1.028475817621701</v>
+        <v>1.037196638693657</v>
       </c>
       <c r="E18">
-        <v>0.9938686160279807</v>
+        <v>1.024577183301538</v>
       </c>
       <c r="F18">
-        <v>0.9915280791259533</v>
+        <v>1.035240755134873</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045229692875556</v>
+        <v>1.037383430574163</v>
       </c>
       <c r="J18">
-        <v>1.012006259073914</v>
+        <v>1.030155775832624</v>
       </c>
       <c r="K18">
-        <v>1.041820480486378</v>
+        <v>1.040516463100837</v>
       </c>
       <c r="L18">
-        <v>1.007794031159891</v>
+        <v>1.027940882551965</v>
       </c>
       <c r="M18">
-        <v>1.005494669099743</v>
+        <v>1.038567302603556</v>
       </c>
       <c r="N18">
-        <v>1.013443424040539</v>
+        <v>1.031618715194826</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9847259828969296</v>
+        <v>1.024046106711542</v>
       </c>
       <c r="D19">
-        <v>1.02872935554001</v>
+        <v>1.037243677609821</v>
       </c>
       <c r="E19">
-        <v>0.9941748495206942</v>
+        <v>1.024639620639714</v>
       </c>
       <c r="F19">
-        <v>0.991987892808736</v>
+        <v>1.035333469201957</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045368979003535</v>
+        <v>1.037403629491447</v>
       </c>
       <c r="J19">
-        <v>1.012240623914446</v>
+        <v>1.030201726415864</v>
       </c>
       <c r="K19">
-        <v>1.042007961924134</v>
+        <v>1.040549054285773</v>
       </c>
       <c r="L19">
-        <v>1.008029808069201</v>
+        <v>1.027988613115246</v>
       </c>
       <c r="M19">
-        <v>1.005881079147343</v>
+        <v>1.038645380965507</v>
       </c>
       <c r="N19">
-        <v>1.013678121706027</v>
+        <v>1.031664731033164</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9829855085824486</v>
+        <v>1.023716221740332</v>
       </c>
       <c r="D20">
-        <v>1.027591571816224</v>
+        <v>1.037033293415914</v>
       </c>
       <c r="E20">
-        <v>0.9928008983321824</v>
+        <v>1.024360432103288</v>
       </c>
       <c r="F20">
-        <v>0.989923931477957</v>
+        <v>1.034918860437153</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044742930133538</v>
+        <v>1.037313185226499</v>
       </c>
       <c r="J20">
-        <v>1.011188440971239</v>
+        <v>1.029996194717466</v>
       </c>
       <c r="K20">
-        <v>1.041166007738844</v>
+        <v>1.040403228075737</v>
       </c>
       <c r="L20">
-        <v>1.006971527579261</v>
+        <v>1.027775144935606</v>
       </c>
       <c r="M20">
-        <v>1.004146300927306</v>
+        <v>1.038296182236761</v>
       </c>
       <c r="N20">
-        <v>1.012624444542354</v>
+        <v>1.03145890745618</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9772121022171848</v>
+        <v>1.02264403163469</v>
       </c>
       <c r="D21">
-        <v>1.023822176712976</v>
+        <v>1.036349054756724</v>
       </c>
       <c r="E21">
-        <v>0.9882542762263193</v>
+        <v>1.023453573202942</v>
       </c>
       <c r="F21">
-        <v>0.9830761907535588</v>
+        <v>1.033571457653427</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042651329581658</v>
+        <v>1.037017213568097</v>
       </c>
       <c r="J21">
-        <v>1.00769446925208</v>
+        <v>1.029327468605126</v>
       </c>
       <c r="K21">
-        <v>1.038365861685637</v>
+        <v>1.03992789432235</v>
       </c>
       <c r="L21">
-        <v>1.003461644926732</v>
+        <v>1.027081038594207</v>
       </c>
       <c r="M21">
-        <v>0.9983854434524337</v>
+        <v>1.037160657356528</v>
       </c>
       <c r="N21">
-        <v>1.009125510982589</v>
+        <v>1.030789231676056</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9734892575396855</v>
+        <v>1.021970133095771</v>
       </c>
       <c r="D22">
-        <v>1.021395948884492</v>
+        <v>1.035918654958111</v>
       </c>
       <c r="E22">
-        <v>0.985331336416633</v>
+        <v>1.022884020439393</v>
       </c>
       <c r="F22">
-        <v>0.9786591792994932</v>
+        <v>1.032724695599079</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041291442514141</v>
+        <v>1.036829648344919</v>
       </c>
       <c r="J22">
-        <v>1.005438801612977</v>
+        <v>1.028906615648841</v>
       </c>
       <c r="K22">
-        <v>1.036555138943732</v>
+        <v>1.039628088220646</v>
       </c>
       <c r="L22">
-        <v>1.00119909277027</v>
+        <v>1.026644552237244</v>
       </c>
       <c r="M22">
-        <v>0.9946655971655273</v>
+        <v>1.036446517345914</v>
       </c>
       <c r="N22">
-        <v>1.00686664003671</v>
+        <v>1.030367781060301</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9754719316958803</v>
+        <v>1.02232735755973</v>
       </c>
       <c r="D23">
-        <v>1.022687627641001</v>
+        <v>1.036146835765246</v>
       </c>
       <c r="E23">
-        <v>0.9868871485115014</v>
+        <v>1.023185891560217</v>
       </c>
       <c r="F23">
-        <v>0.98101170630492</v>
+        <v>1.033173542126914</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042016706254499</v>
+        <v>1.036929219992955</v>
       </c>
       <c r="J23">
-        <v>1.00664033827558</v>
+        <v>1.029129755367526</v>
       </c>
       <c r="K23">
-        <v>1.037519924109646</v>
+        <v>1.039787110381305</v>
       </c>
       <c r="L23">
-        <v>1.002403975222765</v>
+        <v>1.026875948748459</v>
       </c>
       <c r="M23">
-        <v>0.9966471671994961</v>
+        <v>1.036825114649375</v>
       </c>
       <c r="N23">
-        <v>1.008069883019192</v>
+        <v>1.03059123766298</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9830807951798852</v>
+        <v>1.023734201024834</v>
       </c>
       <c r="D24">
-        <v>1.027653846397878</v>
+        <v>1.03704476141689</v>
       </c>
       <c r="E24">
-        <v>0.9928760787934788</v>
+        <v>1.024375646250818</v>
       </c>
       <c r="F24">
-        <v>0.9900369319457937</v>
+        <v>1.034941456709017</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044777260989754</v>
+        <v>1.037318122176431</v>
       </c>
       <c r="J24">
-        <v>1.011246059730724</v>
+        <v>1.030007399214285</v>
       </c>
       <c r="K24">
-        <v>1.041212130810028</v>
+        <v>1.040411181026397</v>
       </c>
       <c r="L24">
-        <v>1.007029464220338</v>
+        <v>1.02778678042096</v>
       </c>
       <c r="M24">
-        <v>1.00424129881913</v>
+        <v>1.038315216261153</v>
       </c>
       <c r="N24">
-        <v>1.012682145127086</v>
+        <v>1.031470127864669</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9915361573186396</v>
+        <v>1.025367754978177</v>
       </c>
       <c r="D25">
-        <v>1.033186692669297</v>
+        <v>1.038085873553731</v>
       </c>
       <c r="E25">
-        <v>0.9995658715435101</v>
+        <v>1.025758984050342</v>
       </c>
       <c r="F25">
-        <v>1.000062893352676</v>
+        <v>1.036994799792349</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047796315861758</v>
+        <v>1.037762979723145</v>
       </c>
       <c r="J25">
-        <v>1.016351759887232</v>
+        <v>1.031024106384058</v>
       </c>
       <c r="K25">
-        <v>1.045290780581334</v>
+        <v>1.041131236272763</v>
       </c>
       <c r="L25">
-        <v>1.012170930537362</v>
+        <v>1.028843407401574</v>
       </c>
       <c r="M25">
-        <v>1.01266023306127</v>
+        <v>1.040043578888022</v>
       </c>
       <c r="N25">
-        <v>1.017795095963448</v>
+        <v>1.032488278875241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_117/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_117/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026671460235407</v>
+        <v>0.9980080281218622</v>
       </c>
       <c r="D2">
-        <v>1.038915501704312</v>
+        <v>1.03742876321215</v>
       </c>
       <c r="E2">
-        <v>1.026864470649486</v>
+        <v>1.004711712339226</v>
       </c>
       <c r="F2">
-        <v>1.038633994696341</v>
+        <v>1.007736707012843</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038112585822517</v>
+        <v>1.050066189242882</v>
       </c>
       <c r="J2">
-        <v>1.031833601415962</v>
+        <v>1.020248482402625</v>
       </c>
       <c r="K2">
-        <v>1.041702175808341</v>
+        <v>1.048390166449199</v>
       </c>
       <c r="L2">
-        <v>1.029685872565378</v>
+        <v>1.016105793503618</v>
       </c>
       <c r="M2">
-        <v>1.0414214700446</v>
+        <v>1.019089299308043</v>
       </c>
       <c r="N2">
-        <v>1.033298923482952</v>
+        <v>1.021697352271774</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027618517893215</v>
+        <v>1.002562622483502</v>
       </c>
       <c r="D3">
-        <v>1.039517420154822</v>
+        <v>1.040416355518991</v>
       </c>
       <c r="E3">
-        <v>1.027668378249994</v>
+        <v>1.008346749107899</v>
       </c>
       <c r="F3">
-        <v>1.039825051248679</v>
+        <v>1.013138114955004</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038363400505145</v>
+        <v>1.051638939047205</v>
       </c>
       <c r="J3">
-        <v>1.032420530751993</v>
+        <v>1.022983670773904</v>
       </c>
       <c r="K3">
-        <v>1.042114755303684</v>
+        <v>1.050556954952435</v>
       </c>
       <c r="L3">
-        <v>1.030297394411474</v>
+        <v>1.018873934167803</v>
       </c>
       <c r="M3">
-        <v>1.042421574270376</v>
+        <v>1.023605606330383</v>
       </c>
       <c r="N3">
-        <v>1.033886686325951</v>
+        <v>1.024436424924269</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02823153521702</v>
+        <v>1.005446854448862</v>
       </c>
       <c r="D4">
-        <v>1.039906678261499</v>
+        <v>1.042308711310927</v>
       </c>
       <c r="E4">
-        <v>1.028189122706892</v>
+        <v>1.010654662881099</v>
       </c>
       <c r="F4">
-        <v>1.040596144534266</v>
+        <v>1.016559353950791</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038524289408417</v>
+        <v>1.052623156149109</v>
       </c>
       <c r="J4">
-        <v>1.032799923913078</v>
+        <v>1.024712247976999</v>
       </c>
       <c r="K4">
-        <v>1.042380803351435</v>
+        <v>1.051921976698899</v>
       </c>
       <c r="L4">
-        <v>1.030693002132187</v>
+        <v>1.020626174064575</v>
       </c>
       <c r="M4">
-        <v>1.043068541351774</v>
+        <v>1.02646194728236</v>
       </c>
       <c r="N4">
-        <v>1.034266618268842</v>
+        <v>1.026167456905263</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028489296917604</v>
+        <v>1.006644884095015</v>
       </c>
       <c r="D5">
-        <v>1.040070267485894</v>
+        <v>1.043094764638769</v>
       </c>
       <c r="E5">
-        <v>1.028408177361583</v>
+        <v>1.011614701556994</v>
       </c>
       <c r="F5">
-        <v>1.040920408180215</v>
+        <v>1.017980667175429</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038591590237115</v>
+        <v>1.053029108827679</v>
       </c>
       <c r="J5">
-        <v>1.032959327007715</v>
+        <v>1.025429381714731</v>
       </c>
       <c r="K5">
-        <v>1.042492429113739</v>
+        <v>1.05248719735075</v>
       </c>
       <c r="L5">
-        <v>1.030859293912296</v>
+        <v>1.021353803142719</v>
       </c>
       <c r="M5">
-        <v>1.04334048635163</v>
+        <v>1.027647534757052</v>
       </c>
       <c r="N5">
-        <v>1.034426247734156</v>
+        <v>1.02688560905516</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028532579112883</v>
+        <v>1.006845203780355</v>
       </c>
       <c r="D6">
-        <v>1.040097731577098</v>
+        <v>1.043226197607853</v>
       </c>
       <c r="E6">
-        <v>1.028444965412981</v>
+        <v>1.011775308142372</v>
       </c>
       <c r="F6">
-        <v>1.040974859111872</v>
+        <v>1.018218336099331</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03860287057343</v>
+        <v>1.053096817501596</v>
       </c>
       <c r="J6">
-        <v>1.032986085972073</v>
+        <v>1.025549240019612</v>
       </c>
       <c r="K6">
-        <v>1.042511158592662</v>
+        <v>1.052581600568408</v>
       </c>
       <c r="L6">
-        <v>1.030887213741135</v>
+        <v>1.021475455415766</v>
       </c>
       <c r="M6">
-        <v>1.043386144772575</v>
+        <v>1.02784572411864</v>
       </c>
       <c r="N6">
-        <v>1.034453044699314</v>
+        <v>1.027005637572582</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028234979248713</v>
+        <v>1.005462918846054</v>
       </c>
       <c r="D7">
-        <v>1.039908864366155</v>
+        <v>1.042319251535975</v>
       </c>
       <c r="E7">
-        <v>1.028192049201846</v>
+        <v>1.01066753059626</v>
       </c>
       <c r="F7">
-        <v>1.040600476983323</v>
+        <v>1.01657841141166</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038525190009684</v>
+        <v>1.052628610950965</v>
       </c>
       <c r="J7">
-        <v>1.032802054234285</v>
+        <v>1.024721867505397</v>
       </c>
       <c r="K7">
-        <v>1.042382295769275</v>
+        <v>1.051929562833809</v>
       </c>
       <c r="L7">
-        <v>1.030695224217242</v>
+        <v>1.020635931696966</v>
       </c>
       <c r="M7">
-        <v>1.0430721752511</v>
+        <v>1.026477848206305</v>
       </c>
       <c r="N7">
-        <v>1.034268751615349</v>
+        <v>1.026177090094495</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026991479497743</v>
+        <v>0.9995606416685818</v>
       </c>
       <c r="D8">
-        <v>1.039118968271485</v>
+        <v>1.038447057504957</v>
       </c>
       <c r="E8">
-        <v>1.027136037935612</v>
+        <v>1.005949572219949</v>
       </c>
       <c r="F8">
-        <v>1.039036435154124</v>
+        <v>1.009577859839801</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038197640417926</v>
+        <v>1.050604757344736</v>
       </c>
       <c r="J8">
-        <v>1.032032037208373</v>
+        <v>1.021181596457549</v>
       </c>
       <c r="K8">
-        <v>1.041841798585023</v>
+        <v>1.04913025471806</v>
       </c>
       <c r="L8">
-        <v>1.029892557005587</v>
+        <v>1.017049551394033</v>
       </c>
       <c r="M8">
-        <v>1.041759494619606</v>
+        <v>1.020629637261724</v>
       </c>
       <c r="N8">
-        <v>1.033497641076938</v>
+        <v>1.022631791455685</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024801886664735</v>
+        <v>0.9886518017529826</v>
       </c>
       <c r="D9">
-        <v>1.037725421380781</v>
+        <v>1.031297886739466</v>
       </c>
       <c r="E9">
-        <v>1.025279561894678</v>
+        <v>0.9972796413193105</v>
       </c>
       <c r="F9">
-        <v>1.036283445656545</v>
+        <v>0.9966429543081302</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037609718317114</v>
+        <v>1.046772770923703</v>
       </c>
       <c r="J9">
-        <v>1.030672211876908</v>
+        <v>1.014611758282111</v>
       </c>
       <c r="K9">
-        <v>1.040882380866303</v>
+        <v>1.043902795837682</v>
       </c>
       <c r="L9">
-        <v>1.028477512343915</v>
+        <v>1.010417009176308</v>
       </c>
       <c r="M9">
-        <v>1.039445099075232</v>
+        <v>1.009790733065565</v>
       </c>
       <c r="N9">
-        <v>1.032135884637529</v>
+        <v>1.016052623356467</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023343269695345</v>
+        <v>0.9809977021056192</v>
       </c>
       <c r="D10">
-        <v>1.036795363856408</v>
+        <v>1.026292887901112</v>
       </c>
       <c r="E10">
-        <v>1.02404489273704</v>
+        <v>0.9912335826697716</v>
       </c>
       <c r="F10">
-        <v>1.034450151545215</v>
+        <v>0.9875664757544711</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037210580188302</v>
+        <v>1.044025297404979</v>
       </c>
       <c r="J10">
-        <v>1.029763706027299</v>
+        <v>1.009986071879583</v>
       </c>
       <c r="K10">
-        <v>1.040238123094334</v>
+        <v>1.040203107186071</v>
       </c>
       <c r="L10">
-        <v>1.02753375644222</v>
+        <v>1.005762942192557</v>
       </c>
       <c r="M10">
-        <v>1.037901296699984</v>
+        <v>1.002163909687272</v>
       </c>
       <c r="N10">
-        <v>1.031226088605406</v>
+        <v>1.011420367948674</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022711941143666</v>
+        <v>0.9775831656513448</v>
       </c>
       <c r="D11">
-        <v>1.036392412399755</v>
+        <v>1.024064201206511</v>
       </c>
       <c r="E11">
-        <v>1.023510986002651</v>
+        <v>0.9885459895445524</v>
       </c>
       <c r="F11">
-        <v>1.033656791563418</v>
+        <v>0.9835163752978218</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037036049506107</v>
+        <v>1.042786411843482</v>
       </c>
       <c r="J11">
-        <v>1.029369855494115</v>
+        <v>1.007919189256657</v>
       </c>
       <c r="K11">
-        <v>1.039958061826366</v>
+        <v>1.038546136290582</v>
       </c>
       <c r="L11">
-        <v>1.027125014400329</v>
+        <v>1.003687193365255</v>
       </c>
       <c r="M11">
-        <v>1.037232603574449</v>
+        <v>0.9987559905982212</v>
       </c>
       <c r="N11">
-        <v>1.030831678759289</v>
+        <v>1.009350550115348</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022477477324276</v>
+        <v>0.9762988886277993</v>
       </c>
       <c r="D12">
-        <v>1.036242705022422</v>
+        <v>1.023226685954466</v>
       </c>
       <c r="E12">
-        <v>1.023312777292145</v>
+        <v>0.9875366414927628</v>
       </c>
       <c r="F12">
-        <v>1.033362172141674</v>
+        <v>0.9819928157006875</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0369709658749</v>
+        <v>1.042318519492501</v>
       </c>
       <c r="J12">
-        <v>1.02922349298759</v>
+        <v>1.007141331827566</v>
       </c>
       <c r="K12">
-        <v>1.039853871209441</v>
+        <v>1.037922029479318</v>
       </c>
       <c r="L12">
-        <v>1.026973176540826</v>
+        <v>1.002906579557637</v>
       </c>
       <c r="M12">
-        <v>1.036984188287201</v>
+        <v>0.9974733321088993</v>
       </c>
       <c r="N12">
-        <v>1.030685108401217</v>
+        <v>1.008571588039486</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022527768807139</v>
+        <v>0.9765751081831995</v>
       </c>
       <c r="D13">
-        <v>1.036274819246729</v>
+        <v>1.023406781418726</v>
       </c>
       <c r="E13">
-        <v>1.023355288831039</v>
+        <v>0.9877536604948578</v>
       </c>
       <c r="F13">
-        <v>1.03342536585848</v>
+        <v>0.9823205115463083</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036984938074629</v>
+        <v>1.042419238549122</v>
       </c>
       <c r="J13">
-        <v>1.029254891351876</v>
+        <v>1.007308651870331</v>
       </c>
       <c r="K13">
-        <v>1.03987622783023</v>
+        <v>1.038056299524908</v>
       </c>
       <c r="L13">
-        <v>1.02700574685</v>
+        <v>1.003074466168249</v>
       </c>
       <c r="M13">
-        <v>1.037037475703526</v>
+        <v>0.9977492434996862</v>
       </c>
       <c r="N13">
-        <v>1.030716551354782</v>
+        <v>1.008739145695905</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022692559479198</v>
+        <v>0.9774773380869247</v>
       </c>
       <c r="D14">
-        <v>1.036380038212045</v>
+        <v>1.023995172119257</v>
       </c>
       <c r="E14">
-        <v>1.023494599800101</v>
+        <v>0.9884627856822352</v>
       </c>
       <c r="F14">
-        <v>1.033632436809571</v>
+        <v>0.9833908354964559</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037030674875669</v>
+        <v>1.042747895048082</v>
       </c>
       <c r="J14">
-        <v>1.029357758526225</v>
+        <v>1.007855101020978</v>
       </c>
       <c r="K14">
-        <v>1.039949452725553</v>
+        <v>1.03849472581821</v>
       </c>
       <c r="L14">
-        <v>1.027112463694597</v>
+        <v>1.00362286619459</v>
       </c>
       <c r="M14">
-        <v>1.037212070162263</v>
+        <v>0.9986503143148971</v>
       </c>
       <c r="N14">
-        <v>1.030819564612318</v>
+        <v>1.009286370867023</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022794097723173</v>
+        <v>0.9780310878409325</v>
       </c>
       <c r="D15">
-        <v>1.036444862721635</v>
+        <v>1.024356402304832</v>
       </c>
       <c r="E15">
-        <v>1.023580448226308</v>
+        <v>0.988898217398905</v>
       </c>
       <c r="F15">
-        <v>1.033760029288538</v>
+        <v>0.9840477208198268</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037058821029232</v>
+        <v>1.042949358804231</v>
       </c>
       <c r="J15">
-        <v>1.029421129273369</v>
+        <v>1.00819042844785</v>
       </c>
       <c r="K15">
-        <v>1.03999454737545</v>
+        <v>1.038763698984426</v>
       </c>
       <c r="L15">
-        <v>1.027178213777177</v>
+        <v>1.003959467482867</v>
       </c>
       <c r="M15">
-        <v>1.037319639202109</v>
+        <v>0.9992032367879983</v>
       </c>
       <c r="N15">
-        <v>1.030883025353192</v>
+        <v>1.009622174497304</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023385174443968</v>
+        <v>0.9812221257527509</v>
       </c>
       <c r="D16">
-        <v>1.036822101678536</v>
+        <v>1.026439465837262</v>
       </c>
       <c r="E16">
-        <v>1.024080341469123</v>
+        <v>0.9914104327181531</v>
       </c>
       <c r="F16">
-        <v>1.034502814054663</v>
+        <v>0.9878326444496617</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037222127408205</v>
+        <v>1.044106454430039</v>
       </c>
       <c r="J16">
-        <v>1.029789834905429</v>
+        <v>1.010121853617599</v>
       </c>
       <c r="K16">
-        <v>1.040256686876733</v>
+        <v>1.040311885219843</v>
       </c>
       <c r="L16">
-        <v>1.027560881469226</v>
+        <v>1.005899386354332</v>
       </c>
       <c r="M16">
-        <v>1.037945671068171</v>
+        <v>1.002387779850624</v>
       </c>
       <c r="N16">
-        <v>1.03125225458954</v>
+        <v>1.011556342512332</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023756011683717</v>
+        <v>0.9831963208037247</v>
       </c>
       <c r="D17">
-        <v>1.037058672978481</v>
+        <v>1.027729350767124</v>
       </c>
       <c r="E17">
-        <v>1.02439410284737</v>
+        <v>0.9929672338954521</v>
       </c>
       <c r="F17">
-        <v>1.034968868324918</v>
+        <v>0.990173933273742</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037324110017181</v>
+        <v>1.044818875135807</v>
       </c>
       <c r="J17">
-        <v>1.030020990969949</v>
+        <v>1.011315914610603</v>
       </c>
       <c r="K17">
-        <v>1.040420827947432</v>
+        <v>1.041268046197116</v>
       </c>
       <c r="L17">
-        <v>1.027800895249723</v>
+        <v>1.007099706962642</v>
       </c>
       <c r="M17">
-        <v>1.038338306098987</v>
+        <v>1.004356470829904</v>
       </c>
       <c r="N17">
-        <v>1.031483738922186</v>
+        <v>1.012752099208907</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023972340050722</v>
+        <v>0.9843382262330651</v>
       </c>
       <c r="D18">
-        <v>1.037196638693657</v>
+        <v>1.028475817621701</v>
       </c>
       <c r="E18">
-        <v>1.024577183301538</v>
+        <v>0.99386861602798</v>
       </c>
       <c r="F18">
-        <v>1.035240755134873</v>
+        <v>0.991528079125953</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037383430574163</v>
+        <v>1.045229692875555</v>
       </c>
       <c r="J18">
-        <v>1.030155775832624</v>
+        <v>1.012006259073913</v>
       </c>
       <c r="K18">
-        <v>1.040516463100837</v>
+        <v>1.041820480486377</v>
       </c>
       <c r="L18">
-        <v>1.027940882551965</v>
+        <v>1.00779403115989</v>
       </c>
       <c r="M18">
-        <v>1.038567302603556</v>
+        <v>1.005494669099743</v>
       </c>
       <c r="N18">
-        <v>1.031618715194826</v>
+        <v>1.013443424040539</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024046106711542</v>
+        <v>0.9847259828969294</v>
       </c>
       <c r="D19">
-        <v>1.037243677609821</v>
+        <v>1.02872935554001</v>
       </c>
       <c r="E19">
-        <v>1.024639620639714</v>
+        <v>0.9941748495206937</v>
       </c>
       <c r="F19">
-        <v>1.035333469201957</v>
+        <v>0.9919878928087357</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037403629491447</v>
+        <v>1.045368979003535</v>
       </c>
       <c r="J19">
-        <v>1.030201726415864</v>
+        <v>1.012240623914445</v>
       </c>
       <c r="K19">
-        <v>1.040549054285773</v>
+        <v>1.042007961924134</v>
       </c>
       <c r="L19">
-        <v>1.027988613115246</v>
+        <v>1.0080298080692</v>
       </c>
       <c r="M19">
-        <v>1.038645380965507</v>
+        <v>1.005881079147343</v>
       </c>
       <c r="N19">
-        <v>1.031664731033164</v>
+        <v>1.013678121706026</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023716221740332</v>
+        <v>0.9829855085824475</v>
       </c>
       <c r="D20">
-        <v>1.037033293415914</v>
+        <v>1.027591571816224</v>
       </c>
       <c r="E20">
-        <v>1.024360432103288</v>
+        <v>0.9928008983321814</v>
       </c>
       <c r="F20">
-        <v>1.034918860437153</v>
+        <v>0.9899239314779557</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037313185226499</v>
+        <v>1.044742930133538</v>
       </c>
       <c r="J20">
-        <v>1.029996194717466</v>
+        <v>1.011188440971238</v>
       </c>
       <c r="K20">
-        <v>1.040403228075737</v>
+        <v>1.041166007738844</v>
       </c>
       <c r="L20">
-        <v>1.027775144935606</v>
+        <v>1.00697152757926</v>
       </c>
       <c r="M20">
-        <v>1.038296182236761</v>
+        <v>1.004146300927305</v>
       </c>
       <c r="N20">
-        <v>1.03145890745618</v>
+        <v>1.012624444542353</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02264403163469</v>
+        <v>0.9772121022171842</v>
       </c>
       <c r="D21">
-        <v>1.036349054756724</v>
+        <v>1.023822176712976</v>
       </c>
       <c r="E21">
-        <v>1.023453573202942</v>
+        <v>0.988254276226319</v>
       </c>
       <c r="F21">
-        <v>1.033571457653427</v>
+        <v>0.9830761907535586</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037017213568097</v>
+        <v>1.042651329581658</v>
       </c>
       <c r="J21">
-        <v>1.029327468605126</v>
+        <v>1.00769446925208</v>
       </c>
       <c r="K21">
-        <v>1.03992789432235</v>
+        <v>1.038365861685637</v>
       </c>
       <c r="L21">
-        <v>1.027081038594207</v>
+        <v>1.003461644926732</v>
       </c>
       <c r="M21">
-        <v>1.037160657356528</v>
+        <v>0.9983854434524335</v>
       </c>
       <c r="N21">
-        <v>1.030789231676056</v>
+        <v>1.009125510982589</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021970133095771</v>
+        <v>0.9734892575396847</v>
       </c>
       <c r="D22">
-        <v>1.035918654958111</v>
+        <v>1.021395948884492</v>
       </c>
       <c r="E22">
-        <v>1.022884020439393</v>
+        <v>0.9853313364166321</v>
       </c>
       <c r="F22">
-        <v>1.032724695599079</v>
+        <v>0.9786591792994924</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036829648344919</v>
+        <v>1.041291442514141</v>
       </c>
       <c r="J22">
-        <v>1.028906615648841</v>
+        <v>1.005438801612976</v>
       </c>
       <c r="K22">
-        <v>1.039628088220646</v>
+        <v>1.036555138943731</v>
       </c>
       <c r="L22">
-        <v>1.026644552237244</v>
+        <v>1.001199092770269</v>
       </c>
       <c r="M22">
-        <v>1.036446517345914</v>
+        <v>0.9946655971655264</v>
       </c>
       <c r="N22">
-        <v>1.030367781060301</v>
+        <v>1.006866640036709</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02232735755973</v>
+        <v>0.9754719316958794</v>
       </c>
       <c r="D23">
-        <v>1.036146835765246</v>
+        <v>1.022687627641001</v>
       </c>
       <c r="E23">
-        <v>1.023185891560217</v>
+        <v>0.9868871485115006</v>
       </c>
       <c r="F23">
-        <v>1.033173542126914</v>
+        <v>0.98101170630492</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036929219992955</v>
+        <v>1.042016706254499</v>
       </c>
       <c r="J23">
-        <v>1.029129755367526</v>
+        <v>1.006640338275579</v>
       </c>
       <c r="K23">
-        <v>1.039787110381305</v>
+        <v>1.037519924109645</v>
       </c>
       <c r="L23">
-        <v>1.026875948748459</v>
+        <v>1.002403975222764</v>
       </c>
       <c r="M23">
-        <v>1.036825114649375</v>
+        <v>0.996647167199496</v>
       </c>
       <c r="N23">
-        <v>1.03059123766298</v>
+        <v>1.008069883019191</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023734201024834</v>
+        <v>0.9830807951798847</v>
       </c>
       <c r="D24">
-        <v>1.03704476141689</v>
+        <v>1.027653846397878</v>
       </c>
       <c r="E24">
-        <v>1.024375646250818</v>
+        <v>0.9928760787934782</v>
       </c>
       <c r="F24">
-        <v>1.034941456709017</v>
+        <v>0.990036931945793</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037318122176431</v>
+        <v>1.044777260989754</v>
       </c>
       <c r="J24">
-        <v>1.030007399214285</v>
+        <v>1.011246059730724</v>
       </c>
       <c r="K24">
-        <v>1.040411181026397</v>
+        <v>1.041212130810028</v>
       </c>
       <c r="L24">
-        <v>1.02778678042096</v>
+        <v>1.007029464220337</v>
       </c>
       <c r="M24">
-        <v>1.038315216261153</v>
+        <v>1.004241298819129</v>
       </c>
       <c r="N24">
-        <v>1.031470127864669</v>
+        <v>1.012682145127085</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025367754978177</v>
+        <v>0.9915361573186385</v>
       </c>
       <c r="D25">
-        <v>1.038085873553731</v>
+        <v>1.033186692669296</v>
       </c>
       <c r="E25">
-        <v>1.025758984050342</v>
+        <v>0.9995658715435091</v>
       </c>
       <c r="F25">
-        <v>1.036994799792349</v>
+        <v>1.000062893352676</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037762979723145</v>
+        <v>1.047796315861757</v>
       </c>
       <c r="J25">
-        <v>1.031024106384058</v>
+        <v>1.016351759887231</v>
       </c>
       <c r="K25">
-        <v>1.041131236272763</v>
+        <v>1.045290780581333</v>
       </c>
       <c r="L25">
-        <v>1.028843407401574</v>
+        <v>1.012170930537361</v>
       </c>
       <c r="M25">
-        <v>1.040043578888022</v>
+        <v>1.012660233061269</v>
       </c>
       <c r="N25">
-        <v>1.032488278875241</v>
+        <v>1.017795095963447</v>
       </c>
     </row>
   </sheetData>
